--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCE58B6-CBD5-4038-B244-96B60455A8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13319264-5230-48FB-B601-FE38E524A683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="467">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1815,30 +1815,6 @@
   </si>
   <si>
     <t>不知道有什么用……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返老还童</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能会回到年轻的时候</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时光倒流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>或许时间会倒流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转世重修</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>渡劫失败重生</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2243,13 +2219,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q136"/>
+  <dimension ref="A1:Q133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D132" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D138" sqref="D138"/>
+      <selection pane="bottomRight" activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4841,48 +4817,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>1132</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E134" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>1133</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="E135" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>1134</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="E136" s="1">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
